--- a/models/Complete_markets_risk_averse_cantral_planner/graphs for techs.xlsx
+++ b/models/Complete_markets_risk_averse_cantral_planner/graphs for techs.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Complete_markets_risk_averse_cantral_planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{FA6AC570-E596-4C39-9822-7FC1D124C502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A76D40A-457E-4B8E-BBBD-3C8BC961E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{072E629C-6AAE-4190-B33E-3259AF67A542}"/>
+    <workbookView xWindow="34875" yWindow="3930" windowWidth="13710" windowHeight="8880" activeTab="1" xr2:uid="{072E629C-6AAE-4190-B33E-3259AF67A542}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="O10T720" sheetId="1" r:id="rId1"/>
+    <sheet name="13_scenarios_3600" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>objective</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>ψ</t>
+  </si>
+  <si>
+    <t>Wind</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>O10T720!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -248,7 +251,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>O10T720!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -269,7 +272,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>O10T720!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -352,7 +355,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>O10T720!$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -373,7 +376,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>O10T720!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -453,7 +456,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>O10T720!$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -474,7 +477,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>O10T720!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -556,7 +559,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>O10T720!$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -577,7 +580,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>O10T720!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -680,7 +683,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>O10T720!$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -701,7 +704,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>O10T720!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -784,7 +787,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>O10T720!$N$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -824,7 +827,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                          <c15:sqref>O10T720!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -909,7 +912,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$2</c15:sqref>
+                          <c15:sqref>O10T720!$E$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -935,10 +938,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$1</c15:sqref>
+                          <c15:sqref>O10T720!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -998,7 +1001,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1020,10 +1023,10 @@
                 </c:dLbls>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$2</c15:sqref>
+                          <c15:sqref>O10T720!$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1036,7 +1039,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-3A87-4C87-A8C2-C05A66C8B04B}"/>
                   </c:ext>
@@ -1049,10 +1052,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$1</c15:sqref>
+                          <c15:sqref>O10T720!$L$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1114,7 +1117,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1136,10 +1139,10 @@
                 </c:dLbls>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$2</c15:sqref>
+                          <c15:sqref>O10T720!$L$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1152,7 +1155,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-3A87-4C87-A8C2-C05A66C8B04B}"/>
                   </c:ext>
@@ -1448,7 +1451,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$1</c:f>
+              <c:f>O10T720!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1527,7 +1530,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>O10T720!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1566,7 +1569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$11</c:f>
+              <c:f>O10T720!$R$2:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1614,7 +1617,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$1</c:f>
+              <c:f>O10T720!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1696,7 +1699,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>O10T720!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1735,7 +1738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$2:$U$11</c:f>
+              <c:f>O10T720!$U$2:$U$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1783,7 +1786,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
+              <c:f>O10T720!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1862,7 +1865,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>O10T720!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1901,7 +1904,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$2:$V$11</c:f>
+              <c:f>O10T720!$V$2:$V$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1949,7 +1952,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$1</c:f>
+              <c:f>O10T720!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2030,7 +2033,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>O10T720!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2069,7 +2072,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$2:$W$11</c:f>
+              <c:f>O10T720!$W$2:$W$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2117,7 +2120,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$1</c:f>
+              <c:f>O10T720!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2198,7 +2201,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>O10T720!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2237,7 +2240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$11</c:f>
+              <c:f>O10T720!$X$2:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2285,7 +2288,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Z$1</c:f>
+              <c:f>O10T720!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2367,7 +2370,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:f>O10T720!$Q$2:$Q$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2406,7 +2409,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Z$2:$Z$11</c:f>
+              <c:f>O10T720!$Z$2:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2472,7 +2475,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$1</c15:sqref>
+                          <c15:sqref>O10T720!$S$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2557,7 +2560,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$2:$Q$11</c15:sqref>
+                          <c15:sqref>O10T720!$Q$2:$Q$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2602,7 +2605,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$2:$S$11</c15:sqref>
+                          <c15:sqref>O10T720!$S$2:$S$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2655,10 +2658,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$1</c15:sqref>
+                          <c15:sqref>O10T720!$T$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2718,7 +2721,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2740,10 +2743,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$2:$Q$11</c15:sqref>
+                          <c15:sqref>O10T720!$Q$2:$Q$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2785,10 +2788,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$2:$T$11</c15:sqref>
+                          <c15:sqref>O10T720!$T$2:$T$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2828,7 +2831,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8B5D-4841-B574-F48ABC77E4B3}"/>
                   </c:ext>
@@ -2841,10 +2844,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y$1</c15:sqref>
+                          <c15:sqref>O10T720!$Y$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2906,7 +2909,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2928,10 +2931,10 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$2:$Q$11</c15:sqref>
+                          <c15:sqref>O10T720!$Q$2:$Q$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2973,10 +2976,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Y$2:$Y$11</c15:sqref>
+                          <c15:sqref>O10T720!$Y$2:$Y$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3016,7 +3019,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-8B5D-4841-B574-F48ABC77E4B3}"/>
                   </c:ext>
@@ -3025,6 +3028,2492 @@
             </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="925243263"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>δ (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>more risk-averse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> --&gt; less risk-averse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925243743"/>
+        <c:crossesAt val="-6"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="925243743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacity Difference {MW}</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925243263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35189133806651751"/>
+                  <c:y val="-4.8028163687682854E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21775124717079983"/>
+                      <c:h val="5.451196578552004E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-BAD6-4C2E-AD95-844734E7687D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.3713687908823704E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BAD6-4C2E-AD95-844734E7687D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2017778792231261E-16"/>
+                  <c:y val="2.1830983494401297E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-BAD6-4C2E-AD95-844734E7687D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5325063439350499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.629191085597601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.8028163687682777E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-BAD6-4C2E-AD95-844734E7687D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65.831552744748393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BESS_4h_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="964B00">
+                <a:alpha val="65098"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="964B00">
+                  <a:alpha val="65098"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BAD6-4C2E-AD95-844734E7687D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8.0219210136131807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BESS_8h_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9331366764995081E-2"/>
+                  <c:y val="-4.3661966988802599E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-BAD6-4C2E-AD95-844734E7687D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.3575339157373199E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDES_PHS_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14421501147164864"/>
+                  <c:y val="-2.4014081843841448E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-BAD6-4C2E-AD95-844734E7687D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.1021734407795801E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BAD6-4C2E-AD95-844734E7687D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2091827183"/>
+        <c:axId val="2091825263"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2091827183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Risk Neutral</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091825263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091825263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacity (MW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091827183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-7.5939369539423027E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0998041383674464E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8912379738671062E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7860893289773866E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.22750882653678575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5504637923544019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1501934333106658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4291801035051539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.412325703623166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1685389500144139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.36774496458690109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.68151570039290021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.88611481113009916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.034828592774101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0104742720618987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25468786618759509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45033356568099236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67821625437518662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98315554516308623</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3446837428289911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BESS_4h_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="964B00">
+                <a:alpha val="65098"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$T$2:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2577125060090637E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16349376954269079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.244481558362871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35385098495784106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73407154065409053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BESS_8h_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$U$2:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.7507920282888379E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.4844495514233979E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.022054165693098E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.2908903349045488E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.36304478954850566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDES_PHS_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600'!$V$2:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-2.0864279925475321E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9807292765867223E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.834439535953302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10879666291870642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38229890726434346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9E97-4354-A2CF-ED5338149F24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="925243263"/>
+        <c:axId val="925243743"/>
+        <c:extLst/>
       </c:barChart>
       <c:catAx>
         <c:axId val="925243263"/>
@@ -3434,6 +5923,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3940,6 +6509,1016 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4522,6 +8101,130 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04133</cdr:x>
+      <cdr:y>0.90078</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07899</cdr:x>
+      <cdr:y>0.94079</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676D15B8-4443-B1AC-68C6-623BDB840D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="365760" y="5361624"/>
+          <a:ext cx="333375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592456</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977FD9B9-30D4-4598-8E62-6239CEA0E5B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B69D28-5F39-475A-8F36-FF8E71E51872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -4883,8 +8586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAF985E-0ABB-43A3-948E-60ECFAB982C3}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5877,4 +9580,504 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A9E17-5D39-4D2F-9DD2-A636E9FB45F7}">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>560091517.48955905</v>
+      </c>
+      <c r="D2">
+        <v>8.3713687908823704E-4</v>
+      </c>
+      <c r="E2">
+        <v>1.5325063439350499</v>
+      </c>
+      <c r="F2">
+        <v>21.629191085597601</v>
+      </c>
+      <c r="G2">
+        <v>65.831552744748393</v>
+      </c>
+      <c r="H2">
+        <v>8.0219210136131807</v>
+      </c>
+      <c r="I2">
+        <v>18.1363634097318</v>
+      </c>
+      <c r="J2">
+        <v>2.3575339157373199E-3</v>
+      </c>
+      <c r="K2">
+        <v>8.1867893329046794E-3</v>
+      </c>
+      <c r="L2">
+        <v>3.1021734407795801E-3</v>
+      </c>
+      <c r="M2">
+        <v>3.5608370984173403E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.8</v>
+      </c>
+      <c r="P2">
+        <f>$D$2-D3</f>
+        <v>-7.5939369539423027E-3</v>
+      </c>
+      <c r="Q2">
+        <f>$E$2-E3</f>
+        <v>0.5504637923544019</v>
+      </c>
+      <c r="R2">
+        <f>$F$2-F3</f>
+        <v>-0.36774496458690109</v>
+      </c>
+      <c r="S2">
+        <f>$G$2-G3</f>
+        <v>0.25468786618759509</v>
+      </c>
+      <c r="T2">
+        <f>$H$2-H3</f>
+        <v>9.2577125060090637E-2</v>
+      </c>
+      <c r="U2">
+        <f>$J$2-J3</f>
+        <v>-1.7507920282888379E-2</v>
+      </c>
+      <c r="V2">
+        <f>$L$2-L3</f>
+        <v>-2.0864279925475321E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>557560689.61844802</v>
+      </c>
+      <c r="D3">
+        <v>8.4310738330305394E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.98204255158064802</v>
+      </c>
+      <c r="F3">
+        <v>21.996936050184502</v>
+      </c>
+      <c r="G3">
+        <v>65.576864878560798</v>
+      </c>
+      <c r="H3">
+        <v>7.92934388855309</v>
+      </c>
+      <c r="I3">
+        <v>17.870018495245599</v>
+      </c>
+      <c r="J3">
+        <v>1.98654541986257E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.8478947407446505E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.39664533662549E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.26739971537739199</v>
+      </c>
+      <c r="O3">
+        <v>0.6</v>
+      </c>
+      <c r="P3">
+        <f>$D$2-D4</f>
+        <v>-1.0998041383674464E-2</v>
+      </c>
+      <c r="Q3">
+        <f>$E$2-E4</f>
+        <v>1.1501934333106658</v>
+      </c>
+      <c r="R3">
+        <f>$F$2-F4</f>
+        <v>-0.68151570039290021</v>
+      </c>
+      <c r="S3">
+        <f>$G$2-G4</f>
+        <v>0.45033356568099236</v>
+      </c>
+      <c r="T3">
+        <f>$H$2-H4</f>
+        <v>0.16349376954269079</v>
+      </c>
+      <c r="U3">
+        <f>$J$2-J4</f>
+        <v>-2.4844495514233979E-2</v>
+      </c>
+      <c r="V3">
+        <f>$L$2-L4</f>
+        <v>-2.9807292765867223E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>555034768.43403101</v>
+      </c>
+      <c r="D4">
+        <v>1.1835178262762701E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.38231291062438399</v>
+      </c>
+      <c r="F4">
+        <v>22.310706785990501</v>
+      </c>
+      <c r="G4">
+        <v>65.381219179067401</v>
+      </c>
+      <c r="H4">
+        <v>7.8584272440704899</v>
+      </c>
+      <c r="I4">
+        <v>17.759659499702</v>
+      </c>
+      <c r="J4">
+        <v>2.7202029429971301E-2</v>
+      </c>
+      <c r="K4">
+        <v>9.4848730462291794E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.2909466206646802E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.35675603003351902</v>
+      </c>
+      <c r="O4">
+        <v>0.4</v>
+      </c>
+      <c r="P4">
+        <f>$D$2-D5</f>
+        <v>-1.8912379738671062E-2</v>
+      </c>
+      <c r="Q4">
+        <f>$E$2-E5</f>
+        <v>1.4291801035051539</v>
+      </c>
+      <c r="R4">
+        <f>$F$2-F5</f>
+        <v>-0.88611481113009916</v>
+      </c>
+      <c r="S4">
+        <f>$G$2-G5</f>
+        <v>0.67821625437518662</v>
+      </c>
+      <c r="T4">
+        <f>$H$2-H5</f>
+        <v>0.244481558362871</v>
+      </c>
+      <c r="U4">
+        <f>$J$2-J5</f>
+        <v>-4.022054165693098E-2</v>
+      </c>
+      <c r="V4">
+        <f>$L$2-L5</f>
+        <v>-4.834439535953302E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>552510896.58795094</v>
+      </c>
+      <c r="D5">
+        <v>1.97495166177593E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.10332624042989599</v>
+      </c>
+      <c r="F5">
+        <v>22.5153058967277</v>
+      </c>
+      <c r="G5">
+        <v>65.153336490373206</v>
+      </c>
+      <c r="H5">
+        <v>7.7774394552503097</v>
+      </c>
+      <c r="I5">
+        <v>17.685845021610401</v>
+      </c>
+      <c r="J5">
+        <v>4.2578075572668302E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.14910894307473699</v>
+      </c>
+      <c r="L5">
+        <v>5.1446568800312599E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.55518933047690699</v>
+      </c>
+      <c r="O5">
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <f>$D$2-D6</f>
+        <v>-4.7860893289773866E-2</v>
+      </c>
+      <c r="Q5">
+        <f>$E$2-E6</f>
+        <v>1.412325703623166</v>
+      </c>
+      <c r="R5">
+        <f>$F$2-F6</f>
+        <v>-1.034828592774101</v>
+      </c>
+      <c r="S5">
+        <f>$G$2-G6</f>
+        <v>0.98315554516308623</v>
+      </c>
+      <c r="T5">
+        <f>$H$2-H6</f>
+        <v>0.35385098495784106</v>
+      </c>
+      <c r="U5">
+        <f>$J$2-J6</f>
+        <v>-9.2908903349045488E-2</v>
+      </c>
+      <c r="V5">
+        <f>$L$2-L6</f>
+        <v>-0.10879666291870642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>549982304.19824004</v>
+      </c>
+      <c r="D6">
+        <v>4.8698030168862101E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.120180640311884</v>
+      </c>
+      <c r="F6">
+        <v>22.664019678371702</v>
+      </c>
+      <c r="G6">
+        <v>64.848397199585307</v>
+      </c>
+      <c r="H6">
+        <v>7.6680700286553396</v>
+      </c>
+      <c r="I6">
+        <v>17.410076117597601</v>
+      </c>
+      <c r="J6">
+        <v>9.5266437264782802E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.333641688695267</v>
+      </c>
+      <c r="L6">
+        <v>0.111898836359486</v>
+      </c>
+      <c r="M6">
+        <v>1.2254068220641099</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>$D$2-D7</f>
+        <v>-0.22750882653678575</v>
+      </c>
+      <c r="Q6">
+        <f>$E$2-E7</f>
+        <v>1.1685389500144139</v>
+      </c>
+      <c r="R6">
+        <f>$F$2-F7</f>
+        <v>-1.0104742720618987</v>
+      </c>
+      <c r="S6">
+        <f>$G$2-G7</f>
+        <v>1.3446837428289911</v>
+      </c>
+      <c r="T6">
+        <f>$H$2-H7</f>
+        <v>0.73407154065409053</v>
+      </c>
+      <c r="U6">
+        <f>$J$2-J7</f>
+        <v>-0.36304478954850566</v>
+      </c>
+      <c r="V6">
+        <f>$L$2-L7</f>
+        <v>-0.38229890726434346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>547408813.48162997</v>
+      </c>
+      <c r="D7">
+        <v>0.22834596341587399</v>
+      </c>
+      <c r="E7">
+        <v>0.36396739392063598</v>
+      </c>
+      <c r="F7">
+        <v>22.639665357659499</v>
+      </c>
+      <c r="G7">
+        <v>64.486869001919402</v>
+      </c>
+      <c r="H7">
+        <v>7.2878494729590901</v>
+      </c>
+      <c r="I7">
+        <v>16.235378801012299</v>
+      </c>
+      <c r="J7">
+        <v>0.36540232346424301</v>
+      </c>
+      <c r="K7">
+        <v>1.24584230745425</v>
+      </c>
+      <c r="L7">
+        <v>0.38540108070512302</v>
+      </c>
+      <c r="M7">
+        <v>4.5425168767480697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/models/Complete_markets_risk_averse_cantral_planner/graphs for techs.xlsx
+++ b/models/Complete_markets_risk_averse_cantral_planner/graphs for techs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Complete_markets_risk_averse_cantral_planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A76D40A-457E-4B8E-BBBD-3C8BC961E184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C5303-443C-471B-B5EF-3C69F1E33481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34875" yWindow="3930" windowWidth="13710" windowHeight="8880" activeTab="1" xr2:uid="{072E629C-6AAE-4190-B33E-3259AF67A542}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{072E629C-6AAE-4190-B33E-3259AF67A542}"/>
   </bookViews>
   <sheets>
     <sheet name="O10T720" sheetId="1" r:id="rId1"/>
     <sheet name="13_scenarios_3600" sheetId="3" r:id="rId2"/>
+    <sheet name="13_scenarios_3600 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>objective</t>
   </si>
@@ -85,6 +86,12 @@
   </si>
   <si>
     <t>Wind</t>
+  </si>
+  <si>
+    <t>BESS_P</t>
+  </si>
+  <si>
+    <t>BESS_E</t>
   </si>
 </sst>
 </file>
@@ -5843,6 +5850,2231 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35189133806651751"/>
+                  <c:y val="-4.8028163687682854E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.21775124717079983"/>
+                      <c:h val="5.451196578552004E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-566F-496B-80DF-F5A22CE2A333}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.37540662245183E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-566F-496B-80DF-F5A22CE2A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-566F-496B-80DF-F5A22CE2A333}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2017778792231261E-16"/>
+                  <c:y val="2.1830983494401297E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-566F-496B-80DF-F5A22CE2A333}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92.662355468441305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-566F-496B-80DF-F5A22CE2A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>78.065122489783207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-566F-496B-80DF-F5A22CE2A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.8028163687682777E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-566F-496B-80DF-F5A22CE2A333}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-566F-496B-80DF-F5A22CE2A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BESS_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="964B00">
+                <a:alpha val="65098"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="964B00">
+                  <a:alpha val="65098"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-566F-496B-80DF-F5A22CE2A333}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4211509930787999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-566F-496B-80DF-F5A22CE2A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDES_PHS_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14421501147164864"/>
+                  <c:y val="-2.4014081843841448E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-566F-496B-80DF-F5A22CE2A333}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.38128494528619E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-566F-496B-80DF-F5A22CE2A333}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2091827183"/>
+        <c:axId val="2091825263"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2091827183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Risk Neutral</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091825263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091825263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacity (MW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2091827183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.49542546929255266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1233026297108817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6123073932242518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.5736844167390922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.7762740332955724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8347-455C-99C4-5CB86E8665BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wind</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4974783873091013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0045442555473016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9342471453345098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1207876705541082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9561904098493983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8347-455C-99C4-5CB86E8665BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-0.12645062250238936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.25675382769669852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3664287498157961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.47830192627759516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2580847423475916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8347-455C-99C4-5CB86E8665BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8347-455C-99C4-5CB86E8665BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BESS_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="964B00">
+                <a:alpha val="65098"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$R$2:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.3590154975752319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6232016299755122E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4941036153403123E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8184353601768523E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39220278495412914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8347-455C-99C4-5CB86E8665BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'13_scenarios_3600 (2)'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LDES_PHS_P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'13_scenarios_3600 (2)'!$S$2:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-9.3534189970954518E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1073714220859582E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.672608371312348E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1624627851357882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.23726994921162739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8347-455C-99C4-5CB86E8665BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="925243263"/>
+        <c:axId val="925243743"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="925243263"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>δ (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>more risk-averse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> --&gt; less risk-averse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925243743"/>
+        <c:crossesAt val="-6"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="925243743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacity Difference {MW}</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="925243263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6003,6 +8235,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -7519,6 +9831,1016 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8225,6 +11547,130 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04133</cdr:x>
+      <cdr:y>0.90078</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.07899</cdr:x>
+      <cdr:y>0.94079</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676D15B8-4443-B1AC-68C6-623BDB840D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="365760" y="5361624"/>
+          <a:ext cx="333375" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>592456</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>11431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94FFFDD-4FAB-446A-A075-1D9B13BF35C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>168591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DC90A6-591B-46A4-88C2-AD601A6899A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9586,7 +13032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A9E17-5D39-4D2F-9DD2-A636E9FB45F7}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -10080,4 +13526,439 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CE4917-61E1-4862-957B-1A972B5300B3}">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>536891471.88808596</v>
+      </c>
+      <c r="D2">
+        <v>1.37540662245183E-2</v>
+      </c>
+      <c r="E2">
+        <v>92.662355468441305</v>
+      </c>
+      <c r="F2">
+        <v>78.065122489783207</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.4211509930787999E-4</v>
+      </c>
+      <c r="I2">
+        <v>9.4537819764861696E-4</v>
+      </c>
+      <c r="J2">
+        <v>2.38128494528619E-4</v>
+      </c>
+      <c r="K2">
+        <v>3.0435610819846402E-3</v>
+      </c>
+      <c r="M2">
+        <v>0.8</v>
+      </c>
+      <c r="N2">
+        <f>$D$2-D3</f>
+        <v>-0.49542546929255266</v>
+      </c>
+      <c r="O2">
+        <f>$E$2-E3</f>
+        <v>1.4974783873091013</v>
+      </c>
+      <c r="P2">
+        <f>$F$2-F3</f>
+        <v>-0.12645062250238936</v>
+      </c>
+      <c r="Q2">
+        <f>$G$2-G3</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>$H$2-H3</f>
+        <v>-1.3590154975752319E-2</v>
+      </c>
+      <c r="S2">
+        <f>$J$2-J3</f>
+        <v>-9.3534189970954518E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>534542976.73991197</v>
+      </c>
+      <c r="D3">
+        <v>0.50917953551707096</v>
+      </c>
+      <c r="E3">
+        <v>91.164877081132204</v>
+      </c>
+      <c r="F3">
+        <v>78.191573112285596</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.3932270075060199E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.7796160121603299E-2</v>
+      </c>
+      <c r="J3">
+        <v>9.5915474916240702E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.12317363777727899</v>
+      </c>
+      <c r="M3">
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <f>$D$2-D4</f>
+        <v>-1.1233026297108817</v>
+      </c>
+      <c r="O3">
+        <f>$E$2-E4</f>
+        <v>3.0045442555473016</v>
+      </c>
+      <c r="P3">
+        <f>$F$2-F4</f>
+        <v>-0.25675382769669852</v>
+      </c>
+      <c r="Q3">
+        <f>$G$2-G4</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>$H$2-H4</f>
+        <v>-1.6232016299755122E-2</v>
+      </c>
+      <c r="S3">
+        <f>$J$2-J4</f>
+        <v>-1.1073714220859582E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>532198575.18411899</v>
+      </c>
+      <c r="D4">
+        <v>1.1370566959354</v>
+      </c>
+      <c r="E4">
+        <v>89.657811212894003</v>
+      </c>
+      <c r="F4">
+        <v>78.321876317479905</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.6574131399063E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.4092213173907199E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.1311842715388201E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.14412792950774</v>
+      </c>
+      <c r="M4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <f>$D$2-D5</f>
+        <v>-2.6123073932242518</v>
+      </c>
+      <c r="O4">
+        <f>$E$2-E5</f>
+        <v>4.9342471453345098</v>
+      </c>
+      <c r="P4">
+        <f>$F$2-F5</f>
+        <v>-0.3664287498157961</v>
+      </c>
+      <c r="Q4">
+        <f>$G$2-G5</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>$H$2-H5</f>
+        <v>-2.4941036153403123E-2</v>
+      </c>
+      <c r="S4">
+        <f>$J$2-J5</f>
+        <v>-1.672608371312348E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>529854548.17746699</v>
+      </c>
+      <c r="D5">
+        <v>2.6260614594487701</v>
+      </c>
+      <c r="E5">
+        <v>87.728108323106795</v>
+      </c>
+      <c r="F5">
+        <v>78.431551239599003</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.5283151252711002E-2</v>
+      </c>
+      <c r="I5">
+        <v>6.4797151461015903E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.69642122076521E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.21464553709248699</v>
+      </c>
+      <c r="M5">
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <f>$D$2-D6</f>
+        <v>-4.5736844167390922</v>
+      </c>
+      <c r="O5">
+        <f>$E$2-E6</f>
+        <v>7.1207876705541082</v>
+      </c>
+      <c r="P5">
+        <f>$F$2-F6</f>
+        <v>-0.47830192627759516</v>
+      </c>
+      <c r="Q5">
+        <f>$G$2-G6</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>$H$2-H6</f>
+        <v>-4.8184353601768523E-2</v>
+      </c>
+      <c r="S5">
+        <f>$J$2-J6</f>
+        <v>-3.1624627851357882E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>527509550.12938201</v>
+      </c>
+      <c r="D6">
+        <v>4.5874384829636101</v>
+      </c>
+      <c r="E6">
+        <v>85.541567797887197</v>
+      </c>
+      <c r="F6">
+        <v>78.543424416060802</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.8526468701076401E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.118700133422927</v>
+      </c>
+      <c r="J6">
+        <v>3.1862756345886499E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.399799619591165</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>$D$2-D7</f>
+        <v>-7.7762740332955724</v>
+      </c>
+      <c r="O6">
+        <f>$E$2-E7</f>
+        <v>8.9561904098493983</v>
+      </c>
+      <c r="P6">
+        <f>$F$2-F7</f>
+        <v>-0.2580847423475916</v>
+      </c>
+      <c r="Q6">
+        <f>$G$2-G7</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>$H$2-H7</f>
+        <v>-0.39220278495412914</v>
+      </c>
+      <c r="S6">
+        <f>$J$2-J7</f>
+        <v>-0.23726994921162739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>525084014.127478</v>
+      </c>
+      <c r="D7">
+        <v>7.7900280995200903</v>
+      </c>
+      <c r="E7">
+        <v>83.706165058591907</v>
+      </c>
+      <c r="F7">
+        <v>78.323207232130798</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.39254490005343701</v>
+      </c>
+      <c r="I7">
+        <v>0.876947459816242</v>
+      </c>
+      <c r="J7">
+        <v>0.23750807770615601</v>
+      </c>
+      <c r="K7">
+        <v>3.06362409611457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/models/Complete_markets_risk_averse_cantral_planner/graphs for techs.xlsx
+++ b/models/Complete_markets_risk_averse_cantral_planner/graphs for techs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Complete_markets_risk_averse_cantral_planner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093C5303-443C-471B-B5EF-3C69F1E33481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293F2FE-C30B-4579-A5E5-7547C8198AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{072E629C-6AAE-4190-B33E-3259AF67A542}"/>
+    <workbookView xWindow="1260" yWindow="1452" windowWidth="13716" windowHeight="8880" activeTab="1" xr2:uid="{072E629C-6AAE-4190-B33E-3259AF67A542}"/>
   </bookViews>
   <sheets>
     <sheet name="O10T720" sheetId="1" r:id="rId1"/>
     <sheet name="13_scenarios_3600" sheetId="3" r:id="rId2"/>
-    <sheet name="13_scenarios_3600 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="13_scenarios_3600_nuclear" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>objective</t>
   </si>
@@ -3504,7 +3504,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.3713687908823704E-4</c:v>
+                  <c:v>1.66385264714206E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,7 +3640,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.5325063439350499</c:v>
+                  <c:v>0.389713002677886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,7 +3741,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.629191085597601</c:v>
+                  <c:v>27.209072193570901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3866,7 +3866,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65.831552744748393</c:v>
+                  <c:v>63.872749589986597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,7 +3886,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BESS_4h_P</c:v>
+                  <c:v>BESS_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3990,7 +3990,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8.0219210136131807</c:v>
+                  <c:v>4.6942943415217604E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4002,134 +4002,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="9"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'13_scenarios_3600'!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BESS_8h_P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.9331366764995081E-2"/>
-                  <c:y val="-4.3661966988802599E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-BAD6-4C2E-AD95-844734E7687D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'13_scenarios_3600'!$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.3575339157373199E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-BAD6-4C2E-AD95-844734E7687D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'13_scenarios_3600'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4234,12 +4111,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$L$2</c:f>
+              <c:f>'13_scenarios_3600'!$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.1021734407795801E-3</c:v>
+                  <c:v>2.54210210626308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4551,7 +4428,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600'!$P$1</c:f>
+              <c:f>'13_scenarios_3600'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4630,7 +4507,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:f>'13_scenarios_3600'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4654,24 +4531,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$P$2:$P$6</c:f>
+              <c:f>'13_scenarios_3600'!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-7.5939369539423027E-3</c:v>
+                  <c:v>-8.1120819466248446E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.0998041383674464E-2</c:v>
+                  <c:v>-1.0259760946628794E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8912379738671062E-2</c:v>
+                  <c:v>-1.5628969947959294E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.7860893289773866E-2</c:v>
+                  <c:v>-3.4450684627696695E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.22750882653678575</c:v>
+                  <c:v>-0.18347066379326979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4687,7 +4564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600'!$Q$1</c:f>
+              <c:f>'13_scenarios_3600'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4769,48 +4646,48 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
+              <c:f>'13_scenarios_3600'!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.28789496534669801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.33077547014449099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33352260053938099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.30352444284115132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'13_scenarios_3600'!$Q$2:$Q$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.5504637923544019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1501934333106658</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4291801035051539</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.412325703623166</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1685389500144139</c:v>
+                  <c:v>5.8888192290495023E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4826,7 +4703,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600'!$R$1</c:f>
+              <c:f>'13_scenarios_3600'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4905,7 +4782,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:f>'13_scenarios_3600'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4929,24 +4806,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$R$2:$R$6</c:f>
+              <c:f>'13_scenarios_3600'!$P$2:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-0.36774496458690109</c:v>
+                  <c:v>-1.2099248351699288E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.68151570039290021</c:v>
+                  <c:v>6.7457926419201897E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.88611481113009916</c:v>
+                  <c:v>0.11167302695830017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.034828592774101</c:v>
+                  <c:v>0.14997034647170082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0104742720618987</c:v>
+                  <c:v>0.33855881157370149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,7 +4839,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600'!$S$1</c:f>
+              <c:f>'13_scenarios_3600'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5043,7 +4920,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:f>'13_scenarios_3600'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5067,24 +4944,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$S$2:$S$6</c:f>
+              <c:f>'13_scenarios_3600'!$Q$2:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.25468786618759509</c:v>
+                  <c:v>0.18018734506959788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45033356568099236</c:v>
+                  <c:v>0.39925545843910015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67821625437518662</c:v>
+                  <c:v>0.64567925879099874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98315554516308623</c:v>
+                  <c:v>0.88703760241769913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3446837428289911</c:v>
+                  <c:v>1.1619346756603974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5100,11 +4977,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600'!$T$1</c:f>
+              <c:f>'13_scenarios_3600'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BESS_4h_P</c:v>
+                  <c:v>BESS_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5181,7 +5058,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:f>'13_scenarios_3600'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5205,24 +5082,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$T$2:$T$6</c:f>
+              <c:f>'13_scenarios_3600'!$R$2:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.2577125060090637E-2</c:v>
+                  <c:v>-0.11775256669272824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16349376954269079</c:v>
+                  <c:v>-0.14555578062238922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.244481558362871</c:v>
+                  <c:v>-0.19170761398397224</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35385098495784106</c:v>
+                  <c:v>-0.30710257182597428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73407154065409053</c:v>
+                  <c:v>-0.8485869560961572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,160 +5111,24 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
+          <c:idx val="9"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600'!$U$1</c:f>
+              <c:f>'13_scenarios_3600'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BESS_8h_P</c:v>
+                  <c:v>LDES_PHS_P</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'13_scenarios_3600'!$U$2:$U$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-1.7507920282888379E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.4844495514233979E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.022054165693098E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.2908903349045488E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.36304478954850566</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9E97-4354-A2CF-ED5338149F24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'13_scenarios_3600'!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LDES_PHS_P</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -5456,7 +5197,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$O$2:$O$6</c:f>
+              <c:f>'13_scenarios_3600'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5480,24 +5221,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600'!$V$2:$V$6</c:f>
+              <c:f>'13_scenarios_3600'!$S$2:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-2.0864279925475321E-2</c:v>
+                  <c:v>5.6246410671900726E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.9807292765867223E-2</c:v>
+                  <c:v>-8.8035950549759878E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.834439535953302E-2</c:v>
+                  <c:v>-0.1470222478810399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.10879666291870642</c:v>
+                  <c:v>-0.16363645719673992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.38229890726434346</c:v>
+                  <c:v>-7.9934550495170065E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5697,7 +5438,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Capacity Difference {MW}</a:t>
+                  <a:t>Capacity Difference from risk neutral</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> {MW}</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5876,7 +5625,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$D$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5985,7 +5734,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$D$2</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6006,7 +5755,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$E$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6121,7 +5870,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$E$2</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6142,7 +5891,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$F$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6222,7 +5971,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$F$2</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6243,7 +5992,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$G$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6347,7 +6096,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$G$2</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6368,7 +6117,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$H$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6471,7 +6220,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$H$2</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6492,7 +6241,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$J$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6503,8 +6252,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -6596,7 +6346,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$J$2</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -6913,7 +6663,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$N$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6992,7 +6742,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7016,7 +6766,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$N$2:$N$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7049,7 +6799,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$O$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7131,7 +6881,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7155,7 +6905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$O$2:$O$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$O$2:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7188,7 +6938,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$P$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7267,7 +7017,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7291,7 +7041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$P$2:$P$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$P$2:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7324,7 +7074,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$Q$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7405,7 +7155,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7429,7 +7179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$Q$2:$Q$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$Q$2:$Q$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7462,7 +7212,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$R$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7543,7 +7293,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7567,7 +7317,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$R$2:$R$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$R$2:$R$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7600,7 +7350,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'13_scenarios_3600 (2)'!$S$1</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7611,8 +7361,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
+              <a:schemeClr val="accent1">
                 <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -7681,7 +7432,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$M$2:$M$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7705,7 +7456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'13_scenarios_3600 (2)'!$S$2:$S$6</c:f>
+              <c:f>'13_scenarios_3600_nuclear'!$S$2:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -7922,7 +7673,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Capacity Difference {MW}</a:t>
+                  <a:t>Capacity Difference from risk neutral  {MW}</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11513,7 +11264,7 @@
       <xdr:rowOff>168591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
@@ -13030,18 +12781,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A9E17-5D39-4D2F-9DD2-A636E9FB45F7}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -13064,49 +12815,40 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13117,68 +12859,58 @@
         <v>560091517.48955905</v>
       </c>
       <c r="D2">
-        <v>8.3713687908823704E-4</v>
+        <v>1.66385264714206E-4</v>
       </c>
       <c r="E2">
-        <v>1.5325063439350499</v>
+        <v>0.389713002677886</v>
       </c>
       <c r="F2">
-        <v>21.629191085597601</v>
+        <v>27.209072193570901</v>
       </c>
       <c r="G2">
-        <v>65.831552744748393</v>
+        <v>63.872749589986597</v>
       </c>
       <c r="H2">
-        <v>8.0219210136131807</v>
+        <v>4.6942943415217604E-3</v>
       </c>
       <c r="I2">
-        <v>18.1363634097318</v>
+        <v>1.53449452133001E-2</v>
       </c>
       <c r="J2">
-        <v>2.3575339157373199E-3</v>
+        <v>2.54210210626308</v>
       </c>
       <c r="K2">
-        <v>8.1867893329046794E-3</v>
-      </c>
-      <c r="L2">
-        <v>3.1021734407795801E-3</v>
+        <v>25.421008241372601</v>
       </c>
       <c r="M2">
-        <v>3.5608370984173403E-2</v>
+        <v>0.8</v>
+      </c>
+      <c r="N2">
+        <f>$D$2-D3</f>
+        <v>-8.1120819466248446E-3</v>
       </c>
       <c r="O2">
-        <v>0.8</v>
+        <f>$E$2-E3</f>
+        <v>0.28789496534669801</v>
       </c>
       <c r="P2">
-        <f>$D$2-D3</f>
-        <v>-7.5939369539423027E-3</v>
+        <f>$F$2-F3</f>
+        <v>-1.2099248351699288E-2</v>
       </c>
       <c r="Q2">
-        <f>$E$2-E3</f>
-        <v>0.5504637923544019</v>
+        <f>$G$2-G3</f>
+        <v>0.18018734506959788</v>
       </c>
       <c r="R2">
-        <f>$F$2-F3</f>
-        <v>-0.36774496458690109</v>
+        <f>$H$2-H3</f>
+        <v>-0.11775256669272824</v>
       </c>
       <c r="S2">
-        <f>$G$2-G3</f>
-        <v>0.25468786618759509</v>
-      </c>
-      <c r="T2">
-        <f>$H$2-H3</f>
-        <v>9.2577125060090637E-2</v>
-      </c>
-      <c r="U2">
         <f>$J$2-J3</f>
-        <v>-1.7507920282888379E-2</v>
-      </c>
-      <c r="V2">
-        <f>$L$2-L3</f>
-        <v>-2.0864279925475321E-2</v>
+        <v>5.6246410671900726E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.8</v>
       </c>
@@ -13189,68 +12921,58 @@
         <v>557560689.61844802</v>
       </c>
       <c r="D3">
-        <v>8.4310738330305394E-3</v>
+        <v>8.2784672113390498E-3</v>
       </c>
       <c r="E3">
-        <v>0.98204255158064802</v>
+        <v>0.10181803733118799</v>
       </c>
       <c r="F3">
-        <v>21.996936050184502</v>
+        <v>27.2211714419226</v>
       </c>
       <c r="G3">
-        <v>65.576864878560798</v>
+        <v>63.692562244916999</v>
       </c>
       <c r="H3">
-        <v>7.92934388855309</v>
+        <v>0.12244686103425</v>
       </c>
       <c r="I3">
-        <v>17.870018495245599</v>
+        <v>0.40318590702010698</v>
       </c>
       <c r="J3">
-        <v>1.98654541986257E-2</v>
+        <v>2.5364774651958899</v>
       </c>
       <c r="K3">
-        <v>6.8478947407446505E-2</v>
-      </c>
-      <c r="L3">
-        <v>2.39664533662549E-2</v>
+        <v>25.378545543316498</v>
       </c>
       <c r="M3">
-        <v>0.26739971537739199</v>
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <f>$D$2-D4</f>
+        <v>-1.0259760946628794E-2</v>
       </c>
       <c r="O3">
-        <v>0.6</v>
+        <f>$E$2-E4</f>
+        <v>0.33077547014449099</v>
       </c>
       <c r="P3">
-        <f>$D$2-D4</f>
-        <v>-1.0998041383674464E-2</v>
+        <f>$F$2-F4</f>
+        <v>6.7457926419201897E-2</v>
       </c>
       <c r="Q3">
-        <f>$E$2-E4</f>
-        <v>1.1501934333106658</v>
+        <f>$G$2-G4</f>
+        <v>0.39925545843910015</v>
       </c>
       <c r="R3">
-        <f>$F$2-F4</f>
-        <v>-0.68151570039290021</v>
+        <f>$H$2-H4</f>
+        <v>-0.14555578062238922</v>
       </c>
       <c r="S3">
-        <f>$G$2-G4</f>
-        <v>0.45033356568099236</v>
-      </c>
-      <c r="T3">
-        <f>$H$2-H4</f>
-        <v>0.16349376954269079</v>
-      </c>
-      <c r="U3">
         <f>$J$2-J4</f>
-        <v>-2.4844495514233979E-2</v>
-      </c>
-      <c r="V3">
-        <f>$L$2-L4</f>
-        <v>-2.9807292765867223E-2</v>
+        <v>-8.8035950549759878E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -13261,68 +12983,58 @@
         <v>555034768.43403101</v>
       </c>
       <c r="D4">
-        <v>1.1835178262762701E-2</v>
+        <v>1.0426146211342999E-2</v>
       </c>
       <c r="E4">
-        <v>0.38231291062438399</v>
+        <v>5.8937532533395003E-2</v>
       </c>
       <c r="F4">
-        <v>22.310706785990501</v>
+        <v>27.141614267151699</v>
       </c>
       <c r="G4">
-        <v>65.381219179067401</v>
+        <v>63.473494131547497</v>
       </c>
       <c r="H4">
-        <v>7.8584272440704899</v>
+        <v>0.15025007496391099</v>
       </c>
       <c r="I4">
-        <v>17.759659499702</v>
+        <v>0.49617651359552001</v>
       </c>
       <c r="J4">
-        <v>2.7202029429971301E-2</v>
+        <v>2.6301380568128399</v>
       </c>
       <c r="K4">
-        <v>9.4848730462291794E-2</v>
-      </c>
-      <c r="L4">
-        <v>3.2909466206646802E-2</v>
+        <v>26.3334461880224</v>
       </c>
       <c r="M4">
-        <v>0.35675603003351902</v>
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <f>$D$2-D5</f>
+        <v>-1.5628969947959294E-2</v>
       </c>
       <c r="O4">
-        <v>0.4</v>
+        <f>$E$2-E5</f>
+        <v>0.33352260053938099</v>
       </c>
       <c r="P4">
-        <f>$D$2-D5</f>
-        <v>-1.8912379738671062E-2</v>
+        <f>$F$2-F5</f>
+        <v>0.11167302695830017</v>
       </c>
       <c r="Q4">
-        <f>$E$2-E5</f>
-        <v>1.4291801035051539</v>
+        <f>$G$2-G5</f>
+        <v>0.64567925879099874</v>
       </c>
       <c r="R4">
-        <f>$F$2-F5</f>
-        <v>-0.88611481113009916</v>
+        <f>$H$2-H5</f>
+        <v>-0.19170761398397224</v>
       </c>
       <c r="S4">
-        <f>$G$2-G5</f>
-        <v>0.67821625437518662</v>
-      </c>
-      <c r="T4">
-        <f>$H$2-H5</f>
-        <v>0.244481558362871</v>
-      </c>
-      <c r="U4">
         <f>$J$2-J5</f>
-        <v>-4.022054165693098E-2</v>
-      </c>
-      <c r="V4">
-        <f>$L$2-L5</f>
-        <v>-4.834439535953302E-2</v>
+        <v>-0.1470222478810399</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.4</v>
       </c>
@@ -13333,68 +13045,58 @@
         <v>552510896.58795094</v>
       </c>
       <c r="D5">
-        <v>1.97495166177593E-2</v>
+        <v>1.5795355212673501E-2</v>
       </c>
       <c r="E5">
-        <v>0.10332624042989599</v>
+        <v>5.6190402138505E-2</v>
       </c>
       <c r="F5">
-        <v>22.5153058967277</v>
+        <v>27.0973991666126</v>
       </c>
       <c r="G5">
-        <v>65.153336490373206</v>
+        <v>63.227070331195598</v>
       </c>
       <c r="H5">
-        <v>7.7774394552503097</v>
+        <v>0.19640190832549401</v>
       </c>
       <c r="I5">
-        <v>17.685845021610401</v>
+        <v>0.65206162859139805</v>
       </c>
       <c r="J5">
-        <v>4.2578075572668302E-2</v>
+        <v>2.6891243541441199</v>
       </c>
       <c r="K5">
-        <v>0.14910894307473699</v>
-      </c>
-      <c r="L5">
-        <v>5.1446568800312599E-2</v>
+        <v>26.970754923970699</v>
       </c>
       <c r="M5">
-        <v>0.55518933047690699</v>
+        <v>0.2</v>
+      </c>
+      <c r="N5">
+        <f>$D$2-D6</f>
+        <v>-3.4450684627696695E-2</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <f>$E$2-E6</f>
+        <v>0.30352444284115132</v>
       </c>
       <c r="P5">
-        <f>$D$2-D6</f>
-        <v>-4.7860893289773866E-2</v>
+        <f>$F$2-F6</f>
+        <v>0.14997034647170082</v>
       </c>
       <c r="Q5">
-        <f>$E$2-E6</f>
-        <v>1.412325703623166</v>
+        <f>$G$2-G6</f>
+        <v>0.88703760241769913</v>
       </c>
       <c r="R5">
-        <f>$F$2-F6</f>
-        <v>-1.034828592774101</v>
+        <f>$H$2-H6</f>
+        <v>-0.30710257182597428</v>
       </c>
       <c r="S5">
-        <f>$G$2-G6</f>
-        <v>0.98315554516308623</v>
-      </c>
-      <c r="T5">
-        <f>$H$2-H6</f>
-        <v>0.35385098495784106</v>
-      </c>
-      <c r="U5">
         <f>$J$2-J6</f>
-        <v>-9.2908903349045488E-2</v>
-      </c>
-      <c r="V5">
-        <f>$L$2-L6</f>
-        <v>-0.10879666291870642</v>
+        <v>-0.16363645719673992</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -13405,68 +13107,58 @@
         <v>549982304.19824004</v>
       </c>
       <c r="D6">
-        <v>4.8698030168862101E-2</v>
+        <v>3.4617069892410902E-2</v>
       </c>
       <c r="E6">
-        <v>0.120180640311884</v>
+        <v>8.6188559836734693E-2</v>
       </c>
       <c r="F6">
-        <v>22.664019678371702</v>
+        <v>27.0591018470992</v>
       </c>
       <c r="G6">
-        <v>64.848397199585307</v>
+        <v>62.985711987568898</v>
       </c>
       <c r="H6">
-        <v>7.6680700286553396</v>
+        <v>0.31179686616749602</v>
       </c>
       <c r="I6">
-        <v>17.410076117597601</v>
+        <v>1.04168893748338</v>
       </c>
       <c r="J6">
-        <v>9.5266437264782802E-2</v>
+        <v>2.7057385634598199</v>
       </c>
       <c r="K6">
-        <v>0.333641688695267</v>
-      </c>
-      <c r="L6">
-        <v>0.111898836359486</v>
+        <v>27.2332411377737</v>
       </c>
       <c r="M6">
-        <v>1.2254068220641099</v>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>$D$2-D7</f>
+        <v>-0.18347066379326979</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>$E$2-E7</f>
+        <v>5.8888192290495023E-2</v>
       </c>
       <c r="P6">
-        <f>$D$2-D7</f>
-        <v>-0.22750882653678575</v>
+        <f>$F$2-F7</f>
+        <v>0.33855881157370149</v>
       </c>
       <c r="Q6">
-        <f>$E$2-E7</f>
-        <v>1.1685389500144139</v>
+        <f>$G$2-G7</f>
+        <v>1.1619346756603974</v>
       </c>
       <c r="R6">
-        <f>$F$2-F7</f>
-        <v>-1.0104742720618987</v>
+        <f>$H$2-H7</f>
+        <v>-0.8485869560961572</v>
       </c>
       <c r="S6">
-        <f>$G$2-G7</f>
-        <v>1.3446837428289911</v>
-      </c>
-      <c r="T6">
-        <f>$H$2-H7</f>
-        <v>0.73407154065409053</v>
-      </c>
-      <c r="U6">
         <f>$J$2-J7</f>
-        <v>-0.36304478954850566</v>
-      </c>
-      <c r="V6">
-        <f>$L$2-L7</f>
-        <v>-0.38229890726434346</v>
+        <v>-7.9934550495170065E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -13477,49 +13169,43 @@
         <v>547408813.48162997</v>
       </c>
       <c r="D7">
-        <v>0.22834596341587399</v>
+        <v>0.183637049057984</v>
       </c>
       <c r="E7">
-        <v>0.36396739392063598</v>
+        <v>0.33082481038739098</v>
       </c>
       <c r="F7">
-        <v>22.639665357659499</v>
+        <v>26.870513381997199</v>
       </c>
       <c r="G7">
-        <v>64.486869001919402</v>
+        <v>62.7108149143262</v>
       </c>
       <c r="H7">
-        <v>7.2878494729590901</v>
+        <v>0.853281250437679</v>
       </c>
       <c r="I7">
-        <v>16.235378801012299</v>
+        <v>2.8743592367168098</v>
       </c>
       <c r="J7">
-        <v>0.36540232346424301</v>
+        <v>2.62203665675825</v>
       </c>
       <c r="K7">
-        <v>1.24584230745425</v>
-      </c>
-      <c r="L7">
-        <v>0.38540108070512302</v>
-      </c>
-      <c r="M7">
-        <v>4.5425168767480697</v>
+        <v>27.819237284556799</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
@@ -13532,8 +13218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CE4917-61E1-4862-957B-1A972B5300B3}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
